--- a/CavendishExperiment.xlsx
+++ b/CavendishExperiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlitt\Documents\Daniel Litt\modern physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARAINES\Documents\Daniel Litt\CavendishExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B125D6-4AC4-48AB-86A1-A42BC852AA0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C4A5C-84C6-4A9A-B30C-7141413B8731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Measurements of S</t>
   </si>
@@ -55,15 +55,82 @@
   <si>
     <t>right</t>
   </si>
+  <si>
+    <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>Measurments of T</t>
+  </si>
+  <si>
+    <t>Position (cm)</t>
+  </si>
+  <si>
+    <t>Min Position Time (s)</t>
+  </si>
+  <si>
+    <t>Max Position Time (s)</t>
+  </si>
+  <si>
+    <t>T/2 (s)</t>
+  </si>
+  <si>
+    <t>T (s)</t>
+  </si>
+  <si>
+    <t>Uncertainty (m)</t>
+  </si>
+  <si>
+    <t>Uncertainty (s)</t>
+  </si>
+  <si>
+    <t>ΔS/2 (cm)</t>
+  </si>
+  <si>
+    <t>ΔS/2 Mean (cm)</t>
+  </si>
+  <si>
+    <t>ΔS (cm)</t>
+  </si>
+  <si>
+    <t>L (m)</t>
+  </si>
+  <si>
+    <t>ΔS/2 Standard Deviation (cm) =</t>
+  </si>
+  <si>
+    <t>Calculation of G</t>
+  </si>
+  <si>
+    <t>m1 (kg)</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>G =</t>
+  </si>
+  <si>
+    <t>r (m)</t>
+  </si>
+  <si>
+    <t>d (m)</t>
+  </si>
+  <si>
+    <t>b (m)</t>
+  </si>
+  <si>
+    <t>ΔS (m)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +138,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,16 +175,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -110,6 +233,1369 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time(sec) vs. Position (cm)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Position (cm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B358-4FED-9246-7C19B439EC29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="701892656"/>
+        <c:axId val="692686288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="701892656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time(sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="692686288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="692686288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Position (cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701892656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381965BF-883C-4609-A2CA-5CC8FE89EA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,24 +1895,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632FA61-5936-4D9A-87FC-59CC7605A5F5}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -436,8 +1928,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -447,8 +1942,16 @@
       <c r="C3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7">
+        <f>_xlfn.STDEV.S(D4:D13)</f>
+        <v>0.55936471902408269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -458,8 +1961,12 @@
       <c r="C4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <f>ABS(B4-B3)</f>
+        <v>8.3000000000000043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -469,8 +1976,15 @@
       <c r="C5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D13" si="0">ABS(B5-B4)</f>
+        <v>8.3000000000000043</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -480,8 +1994,23 @@
       <c r="C6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6999999999999957</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1">
+        <f>AVERAGE(D4:D13)</f>
+        <v>7.5799999999999983</v>
+      </c>
+      <c r="H6" s="7">
+        <f>H3/SQRT(COUNT(D4:D13))</f>
+        <v>0.17688665548562191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -491,8 +2020,23 @@
       <c r="C7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <f>G6*2</f>
+        <v>15.159999999999997</v>
+      </c>
+      <c r="H7" s="7">
+        <f>H6*2</f>
+        <v>0.35377331097124382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -502,8 +2046,12 @@
       <c r="C8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -513,8 +2061,12 @@
       <c r="C9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <f>ABS(B9-B8)/2</f>
+        <v>7.7999999999999972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -524,8 +2076,12 @@
       <c r="C10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -535,8 +2091,12 @@
       <c r="C11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -546,8 +2106,12 @@
       <c r="C12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <f>ABS(B12-B11)/2</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -557,8 +2121,756 @@
       <c r="C13">
         <v>0.2</v>
       </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>53.4</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>52.1</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>50.9</v>
+      </c>
+      <c r="C22">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <f>F21-F20</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>49.7</v>
+      </c>
+      <c r="C23">
+        <v>0.2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <f>F22*2</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>48.6</v>
+      </c>
+      <c r="C24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>47.8</v>
+      </c>
+      <c r="C25">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>46.9</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>5.95</v>
+      </c>
+      <c r="G26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>46.2</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>45.6</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>45.4</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>110</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45.1</v>
+      </c>
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>45.3</v>
+      </c>
+      <c r="C31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>130</v>
+      </c>
+      <c r="B32">
+        <v>45.4</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>140</v>
+      </c>
+      <c r="B33">
+        <v>45.6</v>
+      </c>
+      <c r="C33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>150</v>
+      </c>
+      <c r="B34">
+        <v>46.1</v>
+      </c>
+      <c r="C34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>160</v>
+      </c>
+      <c r="B35">
+        <v>46.7</v>
+      </c>
+      <c r="C35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>170</v>
+      </c>
+      <c r="B36">
+        <v>47.5</v>
+      </c>
+      <c r="C36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>180</v>
+      </c>
+      <c r="B37">
+        <v>48.4</v>
+      </c>
+      <c r="C37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>190</v>
+      </c>
+      <c r="B38">
+        <v>49.3</v>
+      </c>
+      <c r="C38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>200</v>
+      </c>
+      <c r="B39">
+        <v>50.3</v>
+      </c>
+      <c r="C39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>210</v>
+      </c>
+      <c r="B40">
+        <v>51.4</v>
+      </c>
+      <c r="C40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>220</v>
+      </c>
+      <c r="B41">
+        <v>52.8</v>
+      </c>
+      <c r="C41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>230</v>
+      </c>
+      <c r="B42">
+        <v>53.9</v>
+      </c>
+      <c r="C42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <v>55.2</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>250</v>
+      </c>
+      <c r="B44">
+        <v>56.5</v>
+      </c>
+      <c r="C44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>260</v>
+      </c>
+      <c r="B45">
+        <v>57.7</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>270</v>
+      </c>
+      <c r="B46">
+        <v>58.9</v>
+      </c>
+      <c r="C46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>280</v>
+      </c>
+      <c r="B47">
+        <v>60.1</v>
+      </c>
+      <c r="C47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>290</v>
+      </c>
+      <c r="B48">
+        <v>61.2</v>
+      </c>
+      <c r="C48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>300</v>
+      </c>
+      <c r="B49">
+        <v>62.2</v>
+      </c>
+      <c r="C49">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>310</v>
+      </c>
+      <c r="B50">
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>320</v>
+      </c>
+      <c r="B51">
+        <v>63.7</v>
+      </c>
+      <c r="C51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>330</v>
+      </c>
+      <c r="B52">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>340</v>
+      </c>
+      <c r="B53">
+        <v>64.8</v>
+      </c>
+      <c r="C53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>350</v>
+      </c>
+      <c r="B54">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C54">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>360</v>
+      </c>
+      <c r="B55">
+        <v>65.3</v>
+      </c>
+      <c r="C55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>370</v>
+      </c>
+      <c r="B56" s="3">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="C56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>380</v>
+      </c>
+      <c r="B57">
+        <v>65.2</v>
+      </c>
+      <c r="C57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>390</v>
+      </c>
+      <c r="B58">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C58">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>400</v>
+      </c>
+      <c r="B59">
+        <v>64.5</v>
+      </c>
+      <c r="C59">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>410</v>
+      </c>
+      <c r="B60">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>420</v>
+      </c>
+      <c r="B61">
+        <v>63.3</v>
+      </c>
+      <c r="C61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>430</v>
+      </c>
+      <c r="B62">
+        <v>62.5</v>
+      </c>
+      <c r="C62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>440</v>
+      </c>
+      <c r="B63">
+        <v>61.6</v>
+      </c>
+      <c r="C63">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>450</v>
+      </c>
+      <c r="B64">
+        <v>60.7</v>
+      </c>
+      <c r="C64">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>460</v>
+      </c>
+      <c r="B65">
+        <v>59.5</v>
+      </c>
+      <c r="C65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>470</v>
+      </c>
+      <c r="B66">
+        <v>58.4</v>
+      </c>
+      <c r="C66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>480</v>
+      </c>
+      <c r="B67">
+        <v>57.3</v>
+      </c>
+      <c r="C67">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>490</v>
+      </c>
+      <c r="B68">
+        <v>56</v>
+      </c>
+      <c r="C68">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>500</v>
+      </c>
+      <c r="B69">
+        <v>54.8</v>
+      </c>
+      <c r="C69">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>510</v>
+      </c>
+      <c r="B70">
+        <v>53.6</v>
+      </c>
+      <c r="C70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>520</v>
+      </c>
+      <c r="B71">
+        <v>52.5</v>
+      </c>
+      <c r="C71">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>530</v>
+      </c>
+      <c r="B72">
+        <v>51.4</v>
+      </c>
+      <c r="C72">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>540</v>
+      </c>
+      <c r="B73">
+        <v>50.4</v>
+      </c>
+      <c r="C73">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <f>9.55/1000</f>
+        <v>9.5500000000000012E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80">
+        <f>50/1000</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83">
+        <f>F26</f>
+        <v>5.95</v>
+      </c>
+      <c r="C83">
+        <f>G26</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="6">
+        <f>G7/100</f>
+        <v>0.15159999999999996</v>
+      </c>
+      <c r="C84" s="6">
+        <f>H7/100</f>
+        <v>3.5377331097124383E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <f>F23</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87">
+        <f>PI()^2*B84*B81^2*((B80^2+(0.4*B79^2))/(B85^2*B82*B83*B80))</f>
+        <v>5.601064136670216E-5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CavendishExperiment.xlsx
+++ b/CavendishExperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARAINES\Documents\Daniel Litt\CavendishExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C4A5C-84C6-4A9A-B30C-7141413B8731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645A9D29-0C6D-45B5-B6CB-77356401A12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -212,11 +212,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632FA61-5936-4D9A-87FC-59CC7605A5F5}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1942,11 +1942,11 @@
       <c r="C3">
         <v>0.2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7">
+      <c r="G3" s="7"/>
+      <c r="H3" s="6">
         <f>_xlfn.STDEV.S(D4:D13)</f>
         <v>0.55936471902408269</v>
       </c>
@@ -2005,7 +2005,7 @@
         <f>AVERAGE(D4:D13)</f>
         <v>7.5799999999999983</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f>H3/SQRT(COUNT(D4:D13))</f>
         <v>0.17688665548562191</v>
       </c>
@@ -2031,7 +2031,7 @@
         <f>G6*2</f>
         <v>15.159999999999997</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>H6*2</f>
         <v>0.35377331097124382</v>
       </c>
@@ -2810,7 +2810,8 @@
         <v>27</v>
       </c>
       <c r="B81">
-        <v>42.2</v>
+        <f>42.2/1000</f>
+        <v>4.2200000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2838,11 +2839,11 @@
       <c r="A84" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <f>G7/100</f>
         <v>0.15159999999999996</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="5">
         <f>H7/100</f>
         <v>3.5377331097124383E-3</v>
       </c>
@@ -2862,7 +2863,7 @@
       </c>
       <c r="B87">
         <f>PI()^2*B84*B81^2*((B80^2+(0.4*B79^2))/(B85^2*B82*B83*B80))</f>
-        <v>5.601064136670216E-5</v>
+        <v>5.6010641366702152E-11</v>
       </c>
     </row>
   </sheetData>

--- a/CavendishExperiment.xlsx
+++ b/CavendishExperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARAINES\Documents\Daniel Litt\CavendishExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645A9D29-0C6D-45B5-B6CB-77356401A12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8428DF60-300A-4071-9E60-21BBA12DDD8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
   </bookViews>
@@ -32,8 +32,80 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5D234F63-1455-42D4-81D9-19C4EF3D4456}</author>
+    <author>tc={DBB36E26-8B85-4D33-9107-B252D723E3C8}</author>
+    <author>tc={7E5DF10E-9598-4C7A-AC3E-B50A47336E65}</author>
+    <author>tc={F95CAA28-D0F2-451C-80BA-B448744334CE}</author>
+    <author>tc={6B1F4904-C3C9-4912-A741-561A88464FCA}</author>
+    <author>tc={A7C83F0A-E0DF-4064-83F0-843BD08DF3F2}</author>
+    <author>tc={27911C3A-1FDB-49D8-8DE3-EDBAEDC01BFB}</author>
+  </authors>
+  <commentList>
+    <comment ref="A79" authorId="0" shapeId="0" xr:uid="{5D234F63-1455-42D4-81D9-19C4EF3D4456}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Radius of the small mass</t>
+      </text>
+    </comment>
+    <comment ref="A80" authorId="1" shapeId="0" xr:uid="{DBB36E26-8B85-4D33-9107-B252D723E3C8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The length of the lever arm</t>
+      </text>
+    </comment>
+    <comment ref="A81" authorId="2" shapeId="0" xr:uid="{7E5DF10E-9598-4C7A-AC3E-B50A47336E65}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    the distance from center of small mass to center of large mass</t>
+      </text>
+    </comment>
+    <comment ref="A82" authorId="3" shapeId="0" xr:uid="{F95CAA28-D0F2-451C-80BA-B448744334CE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mass of the large mass</t>
+      </text>
+    </comment>
+    <comment ref="A83" authorId="4" shapeId="0" xr:uid="{6B1F4904-C3C9-4912-A741-561A88464FCA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Distance from meter stick to mirror</t>
+      </text>
+    </comment>
+    <comment ref="A84" authorId="5" shapeId="0" xr:uid="{A7C83F0A-E0DF-4064-83F0-843BD08DF3F2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    distance of the laser oscillation</t>
+      </text>
+    </comment>
+    <comment ref="A85" authorId="6" shapeId="0" xr:uid="{27911C3A-1FDB-49D8-8DE3-EDBAEDC01BFB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Period of oscillation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Measurements of S</t>
   </si>
@@ -107,9 +179,6 @@
     <t>Uncertainty</t>
   </si>
   <si>
-    <t>G =</t>
-  </si>
-  <si>
     <t>r (m)</t>
   </si>
   <si>
@@ -120,6 +189,37 @@
   </si>
   <si>
     <t>ΔS (m)</t>
+  </si>
+  <si>
+    <t>Calculated G =</t>
+  </si>
+  <si>
+    <t>Actual G =</t>
+  </si>
+  <si>
+    <t>Percent differrence</t>
+  </si>
+  <si>
+    <t>Correctecd value of G</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -130,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +249,33 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dante"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,11 +327,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -217,10 +345,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,7 +747,7 @@
                 <c:pt idx="29">
                   <c:v>62.2</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.0">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="31">
@@ -645,7 +777,7 @@
                 <c:pt idx="39">
                   <c:v>64.5</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.0">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="41">
@@ -669,7 +801,7 @@
                 <c:pt idx="47">
                   <c:v>57.3</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="48" formatCode="0.0">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="49">
@@ -1562,15 +1694,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1596,6 +1728,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Litt, Daniel Ethan" id="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" userId="Litt, Daniel Ethan" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,17 +2031,43 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A79" dT="2020-09-25T01:23:30.04" personId="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" id="{5D234F63-1455-42D4-81D9-19C4EF3D4456}">
+    <text>Radius of the small mass</text>
+  </threadedComment>
+  <threadedComment ref="A80" dT="2020-09-25T01:22:17.54" personId="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" id="{DBB36E26-8B85-4D33-9107-B252D723E3C8}">
+    <text>The length of the lever arm</text>
+  </threadedComment>
+  <threadedComment ref="A81" dT="2020-09-25T01:21:42.65" personId="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" id="{7E5DF10E-9598-4C7A-AC3E-B50A47336E65}">
+    <text>the distance from center of small mass to center of large mass</text>
+  </threadedComment>
+  <threadedComment ref="A82" dT="2020-09-25T01:24:03.30" personId="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" id="{F95CAA28-D0F2-451C-80BA-B448744334CE}">
+    <text>Mass of the large mass</text>
+  </threadedComment>
+  <threadedComment ref="A83" dT="2020-09-25T01:25:04.35" personId="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" id="{6B1F4904-C3C9-4912-A741-561A88464FCA}">
+    <text>Distance from meter stick to mirror</text>
+  </threadedComment>
+  <threadedComment ref="A84" dT="2020-09-25T01:26:51.03" personId="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" id="{A7C83F0A-E0DF-4064-83F0-843BD08DF3F2}">
+    <text>distance of the laser oscillation</text>
+  </threadedComment>
+  <threadedComment ref="A85" dT="2020-09-25T01:27:32.74" personId="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" id="{27911C3A-1FDB-49D8-8DE3-EDBAEDC01BFB}">
+    <text>Period of oscillation</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632FA61-5936-4D9A-87FC-59CC7605A5F5}">
-  <dimension ref="A1:H87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632FA61-5936-4D9A-87FC-59CC7605A5F5}">
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
@@ -2161,6 +2325,9 @@
       <c r="F20">
         <v>110</v>
       </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -2178,6 +2345,9 @@
       <c r="F21">
         <v>370</v>
       </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -2196,6 +2366,10 @@
         <f>F21-F20</f>
         <v>260</v>
       </c>
+      <c r="G22">
+        <f>G20+G21</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -2214,6 +2388,10 @@
         <f>F22*2</f>
         <v>520</v>
       </c>
+      <c r="G23">
+        <f>G22*2</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -2517,7 +2695,7 @@
       <c r="A50" s="2">
         <v>310</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>63</v>
       </c>
       <c r="C50">
@@ -2627,7 +2805,7 @@
       <c r="A60" s="2">
         <v>410</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>64</v>
       </c>
       <c r="C60">
@@ -2715,7 +2893,7 @@
       <c r="A68" s="2">
         <v>490</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>56</v>
       </c>
       <c r="C68">
@@ -2789,30 +2967,39 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79">
         <f>9.55/1000</f>
         <v>9.5500000000000012E-3</v>
       </c>
+      <c r="C79">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
+      <c r="C80">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B81">
         <f>42.2/1000</f>
         <v>4.2200000000000001E-2</v>
       </c>
+      <c r="C81">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -2821,6 +3008,9 @@
       <c r="B82">
         <v>1.5</v>
       </c>
+      <c r="C82">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -2837,7 +3027,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B84" s="5">
         <f>G7/100</f>
@@ -2856,14 +3046,80 @@
         <f>F23</f>
         <v>520</v>
       </c>
+      <c r="C85">
+        <f>G23</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B87">
         <f>PI()^2*B84*B81^2*((B80^2+(0.4*B79^2))/(B85^2*B82*B83*B80))</f>
         <v>5.6010641366702152E-11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="8">
+        <v>6.67E-11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="9">
+        <f>ABS(B87-B88)/AVERAGE(B87:B88)</f>
+        <v>0.17422056496884111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94">
+        <f>B81^3/((B81^2+4*B80^2)^(3/2))</f>
+        <v>5.8772337831158858E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95">
+        <f>B87/(1-B94)</f>
+        <v>5.9508069745462651E-11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="8">
+        <v>6.67E-11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="9">
+        <f>ABS(B95-B96)/AVERAGE(B95:B96)</f>
+        <v>0.11396942000685195</v>
       </c>
     </row>
   </sheetData>
@@ -2873,5 +3129,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/CavendishExperiment.xlsx
+++ b/CavendishExperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARAINES\Documents\Daniel Litt\CavendishExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8428DF60-300A-4071-9E60-21BBA12DDD8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347C3705-3DC9-47F7-B6EB-4D4807043149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>Percent differrence</t>
   </si>
   <si>
-    <t>Correctecd value of G</t>
-  </si>
-  <si>
     <t>β</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
       <t>0</t>
     </r>
   </si>
+  <si>
+    <t>Corrected value of G</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,13 +242,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -317,27 +310,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -347,7 +328,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2061,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632FA61-5936-4D9A-87FC-59CC7605A5F5}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,7 +2073,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2106,11 +2087,11 @@
       <c r="C3">
         <v>0.2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6">
+      <c r="G3" s="6"/>
+      <c r="H3" s="5">
         <f>_xlfn.STDEV.S(D4:D13)</f>
         <v>0.55936471902408269</v>
       </c>
@@ -2162,14 +2143,14 @@
         <f t="shared" si="0"/>
         <v>6.6999999999999957</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(D4:D13)</f>
         <v>7.5799999999999983</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>H3/SQRT(COUNT(D4:D13))</f>
         <v>0.17688665548562191</v>
       </c>
@@ -2195,7 +2176,7 @@
         <f>G6*2</f>
         <v>15.159999999999997</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f>H6*2</f>
         <v>0.35377331097124382</v>
       </c>
@@ -2310,7 +2291,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>10</v>
       </c>
       <c r="B20">
@@ -2330,7 +2311,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2350,7 +2331,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>30</v>
       </c>
       <c r="B22">
@@ -2372,7 +2353,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>40</v>
       </c>
       <c r="B23">
@@ -2394,7 +2375,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>50</v>
       </c>
       <c r="B24">
@@ -2405,7 +2386,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>60</v>
       </c>
       <c r="B25">
@@ -2419,7 +2400,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>70</v>
       </c>
       <c r="B26">
@@ -2439,7 +2420,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>80</v>
       </c>
       <c r="B27">
@@ -2450,7 +2431,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>90</v>
       </c>
       <c r="B28">
@@ -2461,7 +2442,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>100</v>
       </c>
       <c r="B29">
@@ -2472,10 +2453,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>110</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>45.1</v>
       </c>
       <c r="C30">
@@ -2483,7 +2464,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>120</v>
       </c>
       <c r="B31">
@@ -2494,7 +2475,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>130</v>
       </c>
       <c r="B32">
@@ -2505,7 +2486,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>140</v>
       </c>
       <c r="B33">
@@ -2516,7 +2497,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>150</v>
       </c>
       <c r="B34">
@@ -2527,7 +2508,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>160</v>
       </c>
       <c r="B35">
@@ -2538,7 +2519,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>170</v>
       </c>
       <c r="B36">
@@ -2549,7 +2530,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>180</v>
       </c>
       <c r="B37">
@@ -2560,7 +2541,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>190</v>
       </c>
       <c r="B38">
@@ -2571,7 +2552,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>200</v>
       </c>
       <c r="B39">
@@ -2582,7 +2563,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>210</v>
       </c>
       <c r="B40">
@@ -2593,7 +2574,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>220</v>
       </c>
       <c r="B41">
@@ -2604,7 +2585,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>230</v>
       </c>
       <c r="B42">
@@ -2615,7 +2596,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>240</v>
       </c>
       <c r="B43">
@@ -2626,7 +2607,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>250</v>
       </c>
       <c r="B44">
@@ -2637,7 +2618,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>260</v>
       </c>
       <c r="B45">
@@ -2648,7 +2629,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>270</v>
       </c>
       <c r="B46">
@@ -2659,7 +2640,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>280</v>
       </c>
       <c r="B47">
@@ -2670,7 +2651,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>290</v>
       </c>
       <c r="B48">
@@ -2681,7 +2662,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>300</v>
       </c>
       <c r="B49">
@@ -2692,7 +2673,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>310</v>
       </c>
       <c r="B50" s="1">
@@ -2703,7 +2684,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51">
         <v>320</v>
       </c>
       <c r="B51">
@@ -2714,7 +2695,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52">
         <v>330</v>
       </c>
       <c r="B52">
@@ -2725,7 +2706,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>340</v>
       </c>
       <c r="B53">
@@ -2736,7 +2717,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54">
         <v>350</v>
       </c>
       <c r="B54">
@@ -2747,7 +2728,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55">
         <v>360</v>
       </c>
       <c r="B55">
@@ -2758,10 +2739,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56">
         <v>370</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>65.400000000000006</v>
       </c>
       <c r="C56">
@@ -2769,7 +2750,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57">
         <v>380</v>
       </c>
       <c r="B57">
@@ -2780,7 +2761,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>390</v>
       </c>
       <c r="B58">
@@ -2791,7 +2772,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59">
         <v>400</v>
       </c>
       <c r="B59">
@@ -2802,7 +2783,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60">
         <v>410</v>
       </c>
       <c r="B60" s="1">
@@ -2813,7 +2794,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61">
         <v>420</v>
       </c>
       <c r="B61">
@@ -2824,7 +2805,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62">
         <v>430</v>
       </c>
       <c r="B62">
@@ -2835,7 +2816,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63">
         <v>440</v>
       </c>
       <c r="B63">
@@ -2846,7 +2827,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64">
         <v>450</v>
       </c>
       <c r="B64">
@@ -2857,7 +2838,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65">
         <v>460</v>
       </c>
       <c r="B65">
@@ -2868,7 +2849,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66">
         <v>470</v>
       </c>
       <c r="B66">
@@ -2879,7 +2860,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67">
         <v>480</v>
       </c>
       <c r="B67">
@@ -2890,7 +2871,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68">
         <v>490</v>
       </c>
       <c r="B68" s="1">
@@ -2901,7 +2882,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69">
         <v>500</v>
       </c>
       <c r="B69">
@@ -2912,7 +2893,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70">
         <v>510</v>
       </c>
       <c r="B70">
@@ -2923,7 +2904,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71">
         <v>520</v>
       </c>
       <c r="B71">
@@ -2934,7 +2915,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72">
         <v>530</v>
       </c>
       <c r="B72">
@@ -2945,7 +2926,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73">
         <v>540</v>
       </c>
       <c r="B73">
@@ -3029,11 +3010,11 @@
       <c r="A84" t="s">
         <v>27</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <f>G7/100</f>
         <v>0.15159999999999996</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <f>H7/100</f>
         <v>3.5377331097124383E-3</v>
       </c>
@@ -3064,7 +3045,7 @@
       <c r="A88" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>6.67E-11</v>
       </c>
     </row>
@@ -3072,14 +3053,14 @@
       <c r="A89" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="8">
         <f>ABS(B87-B88)/AVERAGE(B87:B88)</f>
         <v>0.17422056496884111</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -3088,8 +3069,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
-        <v>32</v>
+      <c r="A94" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B94">
         <f>B81^3/((B81^2+4*B80^2)^(3/2))</f>
@@ -3098,7 +3079,7 @@
     </row>
     <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B95">
         <f>B87/(1-B94)</f>
@@ -3109,7 +3090,7 @@
       <c r="A96" t="s">
         <v>29</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>6.67E-11</v>
       </c>
     </row>
@@ -3117,7 +3098,7 @@
       <c r="A97" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="8">
         <f>ABS(B95-B96)/AVERAGE(B95:B96)</f>
         <v>0.11396942000685195</v>
       </c>

--- a/CavendishExperiment.xlsx
+++ b/CavendishExperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARAINES\Documents\Daniel Litt\CavendishExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347C3705-3DC9-47F7-B6EB-4D4807043149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1352187-D30E-42B1-94D5-E8C7EE570E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Measurements of S</t>
   </si>
@@ -221,16 +221,35 @@
   <si>
     <t>Corrected value of G</t>
   </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
+    <t>partial dirivative</t>
+  </si>
+  <si>
+    <t>Uncertainty^2</t>
+  </si>
+  <si>
+    <t>partial dirivative^2</t>
+  </si>
+  <si>
+    <t>Uncertainty^2*partial dirivative^2</t>
+  </si>
+  <si>
+    <t>Uncertainty of G^2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +292,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -311,12 +338,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -329,8 +357,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -2042,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632FA61-5936-4D9A-87FC-59CC7605A5F5}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,9 +2082,10 @@
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2837,7 +2869,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>460</v>
       </c>
@@ -2848,7 +2880,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>470</v>
       </c>
@@ -2859,7 +2891,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>480</v>
       </c>
@@ -2870,7 +2902,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>490</v>
       </c>
@@ -2881,7 +2913,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>500</v>
       </c>
@@ -2892,7 +2924,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>510</v>
       </c>
@@ -2903,7 +2935,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>520</v>
       </c>
@@ -2914,7 +2946,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>530</v>
       </c>
@@ -2925,7 +2957,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>540</v>
       </c>
@@ -2936,17 +2968,29 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2957,8 +3001,27 @@
       <c r="C79">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <f>C79^2</f>
+        <v>1.0000000000000002E-10</v>
+      </c>
+      <c r="E79">
+        <f>(4*PI()^2*B81^2*B84*B79)/(5*B80*B83*B85^2*B82)</f>
+        <v>1.6870668459239571E-10</v>
+      </c>
+      <c r="F79">
+        <f>E79^2</f>
+        <v>2.8461945426158088E-20</v>
+      </c>
+      <c r="G79">
+        <f>D79*F79</f>
+        <v>2.8461945426158092E-30</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -2969,8 +3032,27 @@
       <c r="C80">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <f t="shared" ref="D80:D85" si="1">C80^2</f>
+        <v>1E-4</v>
+      </c>
+      <c r="E80">
+        <f>(PI()^2*$B$81^2*$B$84*(5*$B$80^2-2*$B$79^2))/(5*$B$80^2*$B$83*$B$85^2*$B$82)</f>
+        <v>1.0879898505768954E-9</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80:F85" si="2">E80^2</f>
+        <v>1.1837219149583353E-18</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ref="G80:G85" si="3">D80*F80</f>
+        <v>1.1837219149583355E-22</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -2981,8 +3063,27 @@
       <c r="C81">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E81">
+        <f>(2*PI()^2*$B$81*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^2*$B$82)</f>
+        <v>2.654532766194415E-9</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>7.0465442067997726E-18</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>2.818617682719909E-23</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -2992,8 +3093,27 @@
       <c r="C82">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="E82">
+        <f>-(PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^2*$B$82^2)</f>
+        <v>-3.7340427577801437E-11</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>1.3943075316930341E-21</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>3.4857688292325855E-24</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -3005,8 +3125,27 @@
         <f>G26</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E83">
+        <f>-(PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83^2*$B$85^2*$B$82)</f>
+        <v>-9.4135531708743121E-12</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>8.8614983300877817E-23</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>3.5445993320351131E-26</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -3018,8 +3157,27 @@
         <f>H7/100</f>
         <v>3.5377331097124383E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>1.2515555555555638E-5</v>
+      </c>
+      <c r="E84">
+        <f>(PI()^2*$B$81^2*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^2*$B$82)</f>
+        <v>3.6946333355344443E-10</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>1.3650315484042375E-19</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>1.708412817913937E-24</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -3031,8 +3189,36 @@
         <f>G23</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E85">
+        <f>-(2*PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^3*$B$82)</f>
+        <v>-2.1542554371808521E-13</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>4.640816488623264E-26</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>1.8563265954493056E-23</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86">
+        <f>SUM(G79:G85)</f>
+        <v>1.7035126476418712E-22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -3040,8 +3226,12 @@
         <f>PI()^2*B84*B81^2*((B80^2+(0.4*B79^2))/(B85^2*B82*B83*B80))</f>
         <v>5.6010641366702152E-11</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <f>SQRT(G86)</f>
+        <v>1.3051868248039708E-11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -3049,7 +3239,7 @@
         <v>6.67E-11</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -3058,26 +3248,26 @@
         <v>0.17422056496884111</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="10">
         <f>B81^3/((B81^2+4*B80^2)^(3/2))</f>
         <v>5.8772337831158858E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -3086,7 +3276,7 @@
         <v>5.9508069745462651E-11</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -3107,9 +3297,19 @@
   <mergeCells count="1">
     <mergeCell ref="F3:G3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H79" r:id="rId1" display="test" xr:uid="{6BEC0A57-AC6C-46F4-ABBB-9B08BA02DDC8}"/>
+    <hyperlink ref="H80" r:id="rId2" xr:uid="{8E3D35C6-E0FE-4CED-8C6D-C4FB833FD958}"/>
+    <hyperlink ref="H81" r:id="rId3" xr:uid="{4F2BE297-9C19-4C3F-AC29-73635DE7610D}"/>
+    <hyperlink ref="H82:H85" r:id="rId4" display="equation" xr:uid="{471637F7-9FCC-4596-9A91-5882FB08C20D}"/>
+    <hyperlink ref="H82" r:id="rId5" xr:uid="{0787D4CC-4A8F-489F-8462-B3108CCE7D5C}"/>
+    <hyperlink ref="H83" r:id="rId6" xr:uid="{4150FE10-8621-4CD1-A419-15D47FF5CE98}"/>
+    <hyperlink ref="H84" r:id="rId7" xr:uid="{AAAC84C2-A602-49DE-969A-35007672298A}"/>
+    <hyperlink ref="H85" r:id="rId8" xr:uid="{9BC23F37-3331-407F-BC5E-A26B831A40C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <drawing r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/CavendishExperiment.xlsx
+++ b/CavendishExperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARAINES\Documents\Daniel Litt\CavendishExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1352187-D30E-42B1-94D5-E8C7EE570E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E780665-D5E5-4B9F-B29E-5702E82D408A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
   </bookViews>
@@ -35,6 +35,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={EC885793-5B9F-44CC-8A12-637650A1AB45}</author>
     <author>tc={5D234F63-1455-42D4-81D9-19C4EF3D4456}</author>
     <author>tc={DBB36E26-8B85-4D33-9107-B252D723E3C8}</author>
     <author>tc={7E5DF10E-9598-4C7A-AC3E-B50A47336E65}</author>
@@ -44,7 +45,15 @@
     <author>tc={27911C3A-1FDB-49D8-8DE3-EDBAEDC01BFB}</author>
   </authors>
   <commentList>
-    <comment ref="A79" authorId="0" shapeId="0" xr:uid="{5D234F63-1455-42D4-81D9-19C4EF3D4456}">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{EC885793-5B9F-44CC-8A12-637650A1AB45}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Put table in apendex</t>
+      </text>
+    </comment>
+    <comment ref="A79" authorId="1" shapeId="0" xr:uid="{5D234F63-1455-42D4-81D9-19C4EF3D4456}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +61,7 @@
     Radius of the small mass</t>
       </text>
     </comment>
-    <comment ref="A80" authorId="1" shapeId="0" xr:uid="{DBB36E26-8B85-4D33-9107-B252D723E3C8}">
+    <comment ref="A80" authorId="2" shapeId="0" xr:uid="{DBB36E26-8B85-4D33-9107-B252D723E3C8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +69,7 @@
     The length of the lever arm</t>
       </text>
     </comment>
-    <comment ref="A81" authorId="2" shapeId="0" xr:uid="{7E5DF10E-9598-4C7A-AC3E-B50A47336E65}">
+    <comment ref="A81" authorId="3" shapeId="0" xr:uid="{7E5DF10E-9598-4C7A-AC3E-B50A47336E65}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +77,7 @@
     the distance from center of small mass to center of large mass</t>
       </text>
     </comment>
-    <comment ref="A82" authorId="3" shapeId="0" xr:uid="{F95CAA28-D0F2-451C-80BA-B448744334CE}">
+    <comment ref="A82" authorId="4" shapeId="0" xr:uid="{F95CAA28-D0F2-451C-80BA-B448744334CE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +85,7 @@
     Mass of the large mass</t>
       </text>
     </comment>
-    <comment ref="A83" authorId="4" shapeId="0" xr:uid="{6B1F4904-C3C9-4912-A741-561A88464FCA}">
+    <comment ref="A83" authorId="5" shapeId="0" xr:uid="{6B1F4904-C3C9-4912-A741-561A88464FCA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +93,7 @@
     Distance from meter stick to mirror</t>
       </text>
     </comment>
-    <comment ref="A84" authorId="5" shapeId="0" xr:uid="{A7C83F0A-E0DF-4064-83F0-843BD08DF3F2}">
+    <comment ref="A84" authorId="6" shapeId="0" xr:uid="{A7C83F0A-E0DF-4064-83F0-843BD08DF3F2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +101,7 @@
     distance of the laser oscillation</t>
       </text>
     </comment>
-    <comment ref="A85" authorId="6" shapeId="0" xr:uid="{27911C3A-1FDB-49D8-8DE3-EDBAEDC01BFB}">
+    <comment ref="A85" authorId="7" shapeId="0" xr:uid="{27911C3A-1FDB-49D8-8DE3-EDBAEDC01BFB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Measurements of S</t>
   </si>
@@ -135,15 +144,6 @@
   </si>
   <si>
     <t>Position (cm)</t>
-  </si>
-  <si>
-    <t>Min Position Time (s)</t>
-  </si>
-  <si>
-    <t>Max Position Time (s)</t>
-  </si>
-  <si>
-    <t>T/2 (s)</t>
   </si>
   <si>
     <t>T (s)</t>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Uncertainty of G^2</t>
+  </si>
+  <si>
+    <t>Period Start Time (s)</t>
+  </si>
+  <si>
+    <t>Period End Time (s)</t>
   </si>
 </sst>
 </file>
@@ -344,21 +350,44 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1705,16 +1734,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2045,6 +2074,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A18" dT="2020-09-25T19:01:33.13" personId="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" id="{EC885793-5B9F-44CC-8A12-637650A1AB45}">
+    <text>Put table in apendex</text>
+  </threadedComment>
   <threadedComment ref="A79" dT="2020-09-25T01:23:30.04" personId="{75DA31A4-1CF0-4DC1-93FC-9A3DBED522DD}" id="{5D234F63-1455-42D4-81D9-19C4EF3D4456}">
     <text>Radius of the small mass</text>
   </threadedComment>
@@ -2071,1226 +2103,1219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632FA61-5936-4D9A-87FC-59CC7605A5F5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>48.2</v>
       </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5">
+      <c r="C3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6">
         <f>_xlfn.STDEV.S(D4:D13)</f>
         <v>0.55936471902408269</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>39.9</v>
       </c>
-      <c r="C4">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="5">
         <f>ABS(B4-B3)</f>
         <v>8.3000000000000043</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>48.2</v>
       </c>
-      <c r="C5">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" ref="D5:D13" si="0">ABS(B5-B4)</f>
         <v>8.3000000000000043</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>54.9</v>
       </c>
-      <c r="C6">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>6.6999999999999957</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5">
         <f>AVERAGE(D4:D13)</f>
         <v>7.5799999999999983</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <f>H3/SQRT(COUNT(D4:D13))</f>
         <v>0.17688665548562191</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>48</v>
       </c>
-      <c r="C7">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>6.8999999999999986</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5">
         <f>G6*2</f>
         <v>15.159999999999997</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <f>H6*2</f>
         <v>0.35377331097124382</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>40.200000000000003</v>
       </c>
-      <c r="C8">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>7.7999999999999972</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>55.8</v>
       </c>
-      <c r="C9">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="5">
         <f>ABS(B9-B8)/2</f>
         <v>7.7999999999999972</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>48.2</v>
       </c>
-      <c r="C10">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>7.5999999999999943</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>55.2</v>
       </c>
-      <c r="C11">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>40.200000000000003</v>
       </c>
-      <c r="C12">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="5">
         <f>ABS(B12-B11)/2</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>48.1</v>
       </c>
-      <c r="C13">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>7.8999999999999986</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
-        <v>15</v>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>53.4</v>
       </c>
-      <c r="C20">
-        <v>0.2</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3">
         <v>10</v>
       </c>
-      <c r="F20">
-        <v>110</v>
-      </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>52.1</v>
       </c>
-      <c r="C21">
-        <v>0.2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21">
-        <v>370</v>
-      </c>
-      <c r="G21">
+      <c r="C21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3">
+        <v>510</v>
+      </c>
+      <c r="G21" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>30</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>50.9</v>
       </c>
-      <c r="C22">
-        <v>0.2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22">
+      <c r="C22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
         <f>F21-F20</f>
-        <v>260</v>
-      </c>
-      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <f>G20+G21</f>
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>40</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>49.7</v>
       </c>
-      <c r="C23">
-        <v>0.2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23">
-        <f>F22*2</f>
+      <c r="C23" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3">
+        <v>48.6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3">
+        <v>47.8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>80</v>
+      </c>
+      <c r="B27" s="3">
+        <v>46.2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>90</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45.6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>100</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45.4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>110</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45.1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>120</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>130</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45.4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>140</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45.6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>150</v>
+      </c>
+      <c r="B34" s="3">
+        <v>46.1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>160</v>
+      </c>
+      <c r="B35" s="3">
+        <v>46.7</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>170</v>
+      </c>
+      <c r="B36" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>180</v>
+      </c>
+      <c r="B37" s="3">
+        <v>48.4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>190</v>
+      </c>
+      <c r="B38" s="3">
+        <v>49.3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>200</v>
+      </c>
+      <c r="B39" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>210</v>
+      </c>
+      <c r="B40" s="3">
+        <v>51.4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>220</v>
+      </c>
+      <c r="B41" s="3">
+        <v>52.8</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>230</v>
+      </c>
+      <c r="B42" s="3">
+        <v>53.9</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>240</v>
+      </c>
+      <c r="B43" s="3">
+        <v>55.2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>250</v>
+      </c>
+      <c r="B44" s="3">
+        <v>56.5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>260</v>
+      </c>
+      <c r="B45" s="3">
+        <v>57.7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>270</v>
+      </c>
+      <c r="B46" s="3">
+        <v>58.9</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>280</v>
+      </c>
+      <c r="B47" s="3">
+        <v>60.1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>290</v>
+      </c>
+      <c r="B48" s="3">
+        <v>61.2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>300</v>
+      </c>
+      <c r="B49" s="3">
+        <v>62.2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>310</v>
+      </c>
+      <c r="B50" s="5">
+        <v>63</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>320</v>
+      </c>
+      <c r="B51" s="3">
+        <v>63.7</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>330</v>
+      </c>
+      <c r="B52" s="3">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>340</v>
+      </c>
+      <c r="B53" s="3">
+        <v>64.8</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>350</v>
+      </c>
+      <c r="B54" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>360</v>
+      </c>
+      <c r="B55" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>370</v>
+      </c>
+      <c r="B56" s="3">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>380</v>
+      </c>
+      <c r="B57" s="3">
+        <v>65.2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>390</v>
+      </c>
+      <c r="B58" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>400</v>
+      </c>
+      <c r="B59" s="3">
+        <v>64.5</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>410</v>
+      </c>
+      <c r="B60" s="5">
+        <v>64</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>420</v>
+      </c>
+      <c r="B61" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>430</v>
+      </c>
+      <c r="B62" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>440</v>
+      </c>
+      <c r="B63" s="3">
+        <v>61.6</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>450</v>
+      </c>
+      <c r="B64" s="3">
+        <v>60.7</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>460</v>
+      </c>
+      <c r="B65" s="3">
+        <v>59.5</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>470</v>
+      </c>
+      <c r="B66" s="3">
+        <v>58.4</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>480</v>
+      </c>
+      <c r="B67" s="3">
+        <v>57.3</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>490</v>
+      </c>
+      <c r="B68" s="5">
+        <v>56</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>500</v>
+      </c>
+      <c r="B69" s="3">
+        <v>54.8</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>510</v>
+      </c>
+      <c r="B70" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
         <v>520</v>
       </c>
-      <c r="G23">
-        <f>G22*2</f>
+      <c r="B71" s="3">
+        <v>52.5</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>530</v>
+      </c>
+      <c r="B72" s="3">
+        <v>51.4</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>540</v>
+      </c>
+      <c r="B73" s="3">
+        <v>50.4</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C78" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>48.6</v>
-      </c>
-      <c r="C24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>60</v>
-      </c>
-      <c r="B25">
-        <v>47.8</v>
-      </c>
-      <c r="C25">
-        <v>0.2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>70</v>
-      </c>
-      <c r="B26">
-        <v>46.9</v>
-      </c>
-      <c r="C26">
-        <v>0.2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <v>5.95</v>
-      </c>
-      <c r="G26">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>80</v>
-      </c>
-      <c r="B27">
-        <v>46.2</v>
-      </c>
-      <c r="C27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>90</v>
-      </c>
-      <c r="B28">
-        <v>45.6</v>
-      </c>
-      <c r="C28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>100</v>
-      </c>
-      <c r="B29">
-        <v>45.4</v>
-      </c>
-      <c r="C29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>110</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45.1</v>
-      </c>
-      <c r="C30">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>120</v>
-      </c>
-      <c r="B31">
-        <v>45.3</v>
-      </c>
-      <c r="C31">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>130</v>
-      </c>
-      <c r="B32">
-        <v>45.4</v>
-      </c>
-      <c r="C32">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>140</v>
-      </c>
-      <c r="B33">
-        <v>45.6</v>
-      </c>
-      <c r="C33">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>150</v>
-      </c>
-      <c r="B34">
-        <v>46.1</v>
-      </c>
-      <c r="C34">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>160</v>
-      </c>
-      <c r="B35">
-        <v>46.7</v>
-      </c>
-      <c r="C35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>170</v>
-      </c>
-      <c r="B36">
-        <v>47.5</v>
-      </c>
-      <c r="C36">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>180</v>
-      </c>
-      <c r="B37">
-        <v>48.4</v>
-      </c>
-      <c r="C37">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>190</v>
-      </c>
-      <c r="B38">
-        <v>49.3</v>
-      </c>
-      <c r="C38">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>200</v>
-      </c>
-      <c r="B39">
-        <v>50.3</v>
-      </c>
-      <c r="C39">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>210</v>
-      </c>
-      <c r="B40">
-        <v>51.4</v>
-      </c>
-      <c r="C40">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>220</v>
-      </c>
-      <c r="B41">
-        <v>52.8</v>
-      </c>
-      <c r="C41">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>230</v>
-      </c>
-      <c r="B42">
-        <v>53.9</v>
-      </c>
-      <c r="C42">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>240</v>
-      </c>
-      <c r="B43">
-        <v>55.2</v>
-      </c>
-      <c r="C43">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>250</v>
-      </c>
-      <c r="B44">
-        <v>56.5</v>
-      </c>
-      <c r="C44">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>260</v>
-      </c>
-      <c r="B45">
-        <v>57.7</v>
-      </c>
-      <c r="C45">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>270</v>
-      </c>
-      <c r="B46">
-        <v>58.9</v>
-      </c>
-      <c r="C46">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>280</v>
-      </c>
-      <c r="B47">
-        <v>60.1</v>
-      </c>
-      <c r="C47">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>290</v>
-      </c>
-      <c r="B48">
-        <v>61.2</v>
-      </c>
-      <c r="C48">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>300</v>
-      </c>
-      <c r="B49">
-        <v>62.2</v>
-      </c>
-      <c r="C49">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>310</v>
-      </c>
-      <c r="B50" s="1">
-        <v>63</v>
-      </c>
-      <c r="C50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>320</v>
-      </c>
-      <c r="B51">
-        <v>63.7</v>
-      </c>
-      <c r="C51">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>330</v>
-      </c>
-      <c r="B52">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="C52">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>340</v>
-      </c>
-      <c r="B53">
-        <v>64.8</v>
-      </c>
-      <c r="C53">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>350</v>
-      </c>
-      <c r="B54">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="C54">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>360</v>
-      </c>
-      <c r="B55">
-        <v>65.3</v>
-      </c>
-      <c r="C55">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>370</v>
-      </c>
-      <c r="B56" s="2">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="C56">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>380</v>
-      </c>
-      <c r="B57">
-        <v>65.2</v>
-      </c>
-      <c r="C57">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>390</v>
-      </c>
-      <c r="B58">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="C58">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>400</v>
-      </c>
-      <c r="B59">
-        <v>64.5</v>
-      </c>
-      <c r="C59">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>410</v>
-      </c>
-      <c r="B60" s="1">
-        <v>64</v>
-      </c>
-      <c r="C60">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>420</v>
-      </c>
-      <c r="B61">
-        <v>63.3</v>
-      </c>
-      <c r="C61">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>430</v>
-      </c>
-      <c r="B62">
-        <v>62.5</v>
-      </c>
-      <c r="C62">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>440</v>
-      </c>
-      <c r="B63">
-        <v>61.6</v>
-      </c>
-      <c r="C63">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>450</v>
-      </c>
-      <c r="B64">
-        <v>60.7</v>
-      </c>
-      <c r="C64">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>460</v>
-      </c>
-      <c r="B65">
-        <v>59.5</v>
-      </c>
-      <c r="C65">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>470</v>
-      </c>
-      <c r="B66">
-        <v>58.4</v>
-      </c>
-      <c r="C66">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>480</v>
-      </c>
-      <c r="B67">
-        <v>57.3</v>
-      </c>
-      <c r="C67">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>490</v>
-      </c>
-      <c r="B68" s="1">
-        <v>56</v>
-      </c>
-      <c r="C68">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>500</v>
-      </c>
-      <c r="B69">
-        <v>54.8</v>
-      </c>
-      <c r="C69">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>510</v>
-      </c>
-      <c r="B70">
-        <v>53.6</v>
-      </c>
-      <c r="C70">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>520</v>
-      </c>
-      <c r="B71">
-        <v>52.5</v>
-      </c>
-      <c r="C71">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>530</v>
-      </c>
-      <c r="B72">
-        <v>51.4</v>
-      </c>
-      <c r="C72">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>540</v>
-      </c>
-      <c r="B73">
-        <v>50.4</v>
-      </c>
-      <c r="C73">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="D78" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" t="s">
-        <v>35</v>
-      </c>
-      <c r="F78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <f>9.55/1000</f>
         <v>9.5500000000000012E-3</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <f>C79^2</f>
         <v>1.0000000000000002E-10</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <f>(4*PI()^2*B81^2*B84*B79)/(5*B80*B83*B85^2*B82)</f>
-        <v>1.6870668459239571E-10</v>
-      </c>
-      <c r="F79">
+        <v>1.8247315005513522E-10</v>
+      </c>
+      <c r="F79" s="3">
         <f>E79^2</f>
-        <v>2.8461945426158088E-20</v>
-      </c>
-      <c r="G79">
+        <v>3.3296450491043893E-20</v>
+      </c>
+      <c r="G79" s="3">
         <f>D79*F79</f>
-        <v>2.8461945426158092E-30</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>34</v>
+        <v>3.3296450491043899E-30</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80">
+      <c r="A80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="3">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>0.01</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <f t="shared" ref="D80:D85" si="1">C80^2</f>
         <v>1E-4</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <f>(PI()^2*$B$81^2*$B$84*(5*$B$80^2-2*$B$79^2))/(5*$B$80^2*$B$83*$B$85^2*$B$82)</f>
-        <v>1.0879898505768954E-9</v>
-      </c>
-      <c r="F80">
+        <v>1.17676982238397E-9</v>
+      </c>
+      <c r="F80" s="3">
         <f t="shared" ref="F80:F85" si="2">E80^2</f>
-        <v>1.1837219149583353E-18</v>
-      </c>
-      <c r="G80">
+        <v>1.3847872148736003E-18</v>
+      </c>
+      <c r="G80" s="3">
         <f t="shared" ref="G80:G85" si="3">D80*F80</f>
-        <v>1.1837219149583355E-22</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>34</v>
+        <v>1.3847872148736004E-22</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81">
+      <c r="A81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="3">
         <f>42.2/1000</f>
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <f t="shared" si="1"/>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <f>(2*PI()^2*$B$81*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^2*$B$82)</f>
-        <v>2.654532766194415E-9</v>
-      </c>
-      <c r="F81">
+        <v>2.8711426399158793E-9</v>
+      </c>
+      <c r="F81" s="3">
         <f t="shared" si="2"/>
-        <v>7.0465442067997726E-18</v>
-      </c>
-      <c r="G81">
+        <v>8.2434600587431239E-18</v>
+      </c>
+      <c r="G81" s="3">
         <f t="shared" si="3"/>
-        <v>2.818617682719909E-23</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>34</v>
+        <v>3.2973840234972494E-23</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82">
+      <c r="A82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="3">
         <v>1.5</v>
       </c>
-      <c r="C82">
-        <v>0.05</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D82" s="3">
         <f t="shared" si="1"/>
-        <v>2.5000000000000005E-3</v>
-      </c>
-      <c r="E82">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="E82" s="3">
         <f>-(PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^2*$B$82^2)</f>
-        <v>-3.7340427577801437E-11</v>
-      </c>
-      <c r="F82">
+        <v>-4.0387406468150038E-11</v>
+      </c>
+      <c r="F82" s="3">
         <f t="shared" si="2"/>
-        <v>1.3943075316930341E-21</v>
-      </c>
-      <c r="G82">
+        <v>1.6311426012235676E-21</v>
+      </c>
+      <c r="G82" s="3">
         <f t="shared" si="3"/>
-        <v>3.4857688292325855E-24</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>34</v>
+        <v>1.6311426012235678E-23</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83">
+      <c r="A83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="3">
         <f>F26</f>
         <v>5.95</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
         <f>G26</f>
         <v>0.02</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <f t="shared" si="1"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <f>-(PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83^2*$B$85^2*$B$82)</f>
-        <v>-9.4135531708743121E-12</v>
-      </c>
-      <c r="F83">
+        <v>-1.0181699109617656E-11</v>
+      </c>
+      <c r="F83" s="3">
         <f t="shared" si="2"/>
-        <v>8.8614983300877817E-23</v>
-      </c>
-      <c r="G83">
+        <v>1.0366699675878896E-22</v>
+      </c>
+      <c r="G83" s="3">
         <f t="shared" si="3"/>
-        <v>3.5445993320351131E-26</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>34</v>
+        <v>4.1466798703515588E-26</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" s="4">
+      <c r="A84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="8">
         <f>G7/100</f>
         <v>0.15159999999999996</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="8">
         <f>H7/100</f>
         <v>3.5377331097124383E-3</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <f t="shared" si="1"/>
         <v>1.2515555555555638E-5</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <f>(PI()^2*$B$81^2*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^2*$B$82)</f>
-        <v>3.6946333355344443E-10</v>
-      </c>
-      <c r="F84">
+        <v>3.9961154157140547E-10</v>
+      </c>
+      <c r="F84" s="3">
         <f t="shared" si="2"/>
-        <v>1.3650315484042375E-19</v>
-      </c>
-      <c r="G84">
+        <v>1.5968938415707511E-19</v>
+      </c>
+      <c r="G84" s="3">
         <f t="shared" si="3"/>
-        <v>1.708412817913937E-24</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>34</v>
+        <v>1.9986013590503398E-24</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85">
-        <f>F23</f>
-        <v>520</v>
-      </c>
-      <c r="C85">
-        <f>G23</f>
+      <c r="A85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="3">
+        <f>F22</f>
+        <v>500</v>
+      </c>
+      <c r="C85" s="3">
+        <f>G22</f>
+        <v>10</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E85" s="3">
+        <f>-(2*PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^3*$B$82)</f>
+        <v>-2.4232443880890024E-13</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8721133644048437E-26</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="3"/>
+        <v>5.8721133644048438E-24</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="3">
+        <f>SUM(G79:G85)</f>
+        <v>1.9567617258637194E-22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="3">
+        <f>PI()^2*B84*B81^2*((B80^2+(0.4*B79^2))/(B85^2*B82*B83*B80))</f>
+        <v>6.0581109702225041E-11</v>
+      </c>
+      <c r="C87" s="3">
+        <f>SQRT(G86)</f>
+        <v>1.3988429954300517E-11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="9">
+        <v>6.67E-11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="10">
+        <f>ABS(B87-B88)/AVERAGE(B87:B88)</f>
+        <v>9.6147657921747232E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="E85">
-        <f>-(2*PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^3*$B$82)</f>
-        <v>-2.1542554371808521E-13</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="2"/>
-        <v>4.640816488623264E-26</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="3"/>
-        <v>1.8563265954493056E-23</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F86" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86">
-        <f>SUM(G79:G85)</f>
-        <v>1.7035126476418712E-22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B87">
-        <f>PI()^2*B84*B81^2*((B80^2+(0.4*B79^2))/(B85^2*B82*B83*B80))</f>
-        <v>5.6010641366702152E-11</v>
-      </c>
-      <c r="C87">
-        <f>SQRT(G86)</f>
-        <v>1.3051868248039708E-11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="7">
-        <v>6.67E-11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="8">
-        <f>ABS(B87-B88)/AVERAGE(B87:B88)</f>
-        <v>0.17422056496884111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="10">
+      <c r="B94" s="12">
         <f>B81^3/((B81^2+4*B80^2)^(3/2))</f>
         <v>5.8772337831158858E-2</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95">
+      <c r="A95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="3">
         <f>B87/(1-B94)</f>
-        <v>5.9508069745462651E-11</v>
+        <v>6.4363928236692398E-11</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>29</v>
-      </c>
-      <c r="B96" s="7">
+      <c r="A96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="9">
         <v>6.67E-11</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97" s="8">
+      <c r="A97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="10">
         <f>ABS(B95-B96)/AVERAGE(B95:B96)</f>
-        <v>0.11396942000685195</v>
+        <v>3.5647821559091644E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3308,7 +3333,7 @@
     <hyperlink ref="H85" r:id="rId8" xr:uid="{9BC23F37-3331-407F-BC5E-A26B831A40C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
   <drawing r:id="rId10"/>
   <legacyDrawing r:id="rId11"/>
 </worksheet>

--- a/CavendishExperiment.xlsx
+++ b/CavendishExperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARAINES\Documents\Daniel Litt\CavendishExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E780665-D5E5-4B9F-B29E-5702E82D408A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EAF195-48EF-4EE3-B2C8-F6291C48061C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Measurements of S</t>
   </si>
@@ -245,17 +245,24 @@
   <si>
     <t>Period End Time (s)</t>
   </si>
+  <si>
+    <t>Uncertainty β part 1</t>
+  </si>
+  <si>
+    <t>Uncertainty β part 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,12 +284,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -348,13 +349,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,7 +368,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -382,10 +380,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +450,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time(sec) vs. Position (cm)</a:t>
+              <a:t>Time (sec) vs. Position (cm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -925,7 +932,7 @@
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Time(sec)</a:t>
+                  <a:t>Time (sec)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2108,37 +2115,37 @@
   </sheetPr>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2146,1174 +2153,1204 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>48.2</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6">
+      <c r="G3" s="11"/>
+      <c r="H3" s="5">
         <f>_xlfn.STDEV.S(D4:D13)</f>
         <v>0.55936471902408269</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>39.9</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="4">
         <f>ABS(B4-B3)</f>
         <v>8.3000000000000043</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>48.2</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" ref="D5:D13" si="0">ABS(B5-B4)</f>
         <v>8.3000000000000043</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>54.9</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>6.6999999999999957</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>AVERAGE(D4:D13)</f>
         <v>7.5799999999999983</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>H3/SQRT(COUNT(D4:D13))</f>
         <v>0.17688665548562191</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>48</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>6.8999999999999986</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>G6*2</f>
         <v>15.159999999999997</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f>H6*2</f>
         <v>0.35377331097124382</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>40.200000000000003</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>7.7999999999999972</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>55.8</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="4">
         <f>ABS(B9-B8)/2</f>
         <v>7.7999999999999972</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>48.2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>7.5999999999999943</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>55.2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>40.200000000000003</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="4">
         <f>ABS(B12-B11)/2</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>48.1</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>7.8999999999999986</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>53.4</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>10</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>52.1</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>510</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>30</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>50.9</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f>F21-F20</f>
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f>G20+G21</f>
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>40</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>49.7</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>50</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>48.6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>60</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>47.8</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="C25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>70</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>46.9</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>5.95</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>80</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>46.2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>90</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>45.6</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>100</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>45.4</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>110</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>45.1</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>120</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>45.3</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>130</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>45.4</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>140</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>45.6</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>150</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>46.1</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>160</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>46.7</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>170</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>47.5</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>180</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>48.4</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>190</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>49.3</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>200</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>50.3</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>210</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>51.4</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>220</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>52.8</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>230</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>53.9</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>240</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>55.2</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>250</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>56.5</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>260</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>57.7</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>270</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>58.9</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>280</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>60.1</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>290</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>61.2</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>300</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>62.2</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>310</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>63</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>320</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>63.7</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>330</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>64.400000000000006</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>340</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>64.8</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>350</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>65.099999999999994</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>360</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>65.3</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>370</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>65.400000000000006</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>380</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>65.2</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>390</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>64.900000000000006</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>400</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>64.5</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>410</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>64</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>420</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>63.3</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>430</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>62.5</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>440</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>61.6</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>450</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>60.7</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>460</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>59.5</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>470</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>58.4</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>480</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>57.3</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>490</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>56</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>500</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>54.8</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>510</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>53.6</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>520</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>52.5</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>530</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>51.4</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>540</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>50.4</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <f>9.55/1000</f>
         <v>9.5500000000000012E-3</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <f>C79^2</f>
         <v>1.0000000000000002E-10</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <f>(4*PI()^2*B81^2*B84*B79)/(5*B80*B83*B85^2*B82)</f>
         <v>1.8247315005513522E-10</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <f>E79^2</f>
         <v>3.3296450491043893E-20</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="2">
         <f>D79*F79</f>
         <v>3.3296450491043899E-30</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <v>0.01</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <f t="shared" ref="D80:D85" si="1">C80^2</f>
         <v>1E-4</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <f>(PI()^2*$B$81^2*$B$84*(5*$B$80^2-2*$B$79^2))/(5*$B$80^2*$B$83*$B$85^2*$B$82)</f>
         <v>1.17676982238397E-9</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <f t="shared" ref="F80:F85" si="2">E80^2</f>
         <v>1.3847872148736003E-18</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="2">
         <f t="shared" ref="G80:G85" si="3">D80*F80</f>
         <v>1.3847872148736004E-22</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <f>42.2/1000</f>
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="C81" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="D81" s="3">
+      <c r="C81" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D81" s="2">
         <f t="shared" si="1"/>
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E81" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E81" s="2">
         <f>(2*PI()^2*$B$81*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^2*$B$82)</f>
         <v>2.8711426399158793E-9</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <f t="shared" si="2"/>
         <v>8.2434600587431239E-18</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="2">
         <f t="shared" si="3"/>
-        <v>3.2973840234972494E-23</v>
-      </c>
-      <c r="H81" s="7" t="s">
+        <v>8.2434600587431235E-24</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>1.5</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>0.1</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <f t="shared" si="1"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <f>-(PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^2*$B$82^2)</f>
         <v>-4.0387406468150038E-11</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <f t="shared" si="2"/>
         <v>1.6311426012235676E-21</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="2">
         <f t="shared" si="3"/>
         <v>1.6311426012235678E-23</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <f>F26</f>
         <v>5.95</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <f>G26</f>
         <v>0.02</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <f t="shared" si="1"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <f>-(PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83^2*$B$85^2*$B$82)</f>
         <v>-1.0181699109617656E-11</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <f t="shared" si="2"/>
         <v>1.0366699675878896E-22</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="2">
         <f t="shared" si="3"/>
         <v>4.1466798703515588E-26</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <f>G7/100</f>
         <v>0.15159999999999996</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <f>H7/100</f>
         <v>3.5377331097124383E-3</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <f t="shared" si="1"/>
         <v>1.2515555555555638E-5</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <f>(PI()^2*$B$81^2*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^2*$B$82)</f>
         <v>3.9961154157140547E-10</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <f t="shared" si="2"/>
         <v>1.5968938415707511E-19</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <f t="shared" si="3"/>
         <v>1.9986013590503398E-24</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <f>F22</f>
         <v>500</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <f>G22</f>
         <v>10</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <f>-(2*PI()^2*$B$81^2*$B$84*(5*$B$80^2+2*$B$79^2))/(5*$B$80*$B$83*$B$85^3*$B$82)</f>
         <v>-2.4232443880890024E-13</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <f t="shared" si="2"/>
         <v>5.8721133644048437E-26</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="2">
         <f t="shared" si="3"/>
         <v>5.8721133644048438E-24</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <f>SUM(G79:G85)</f>
-        <v>1.9567617258637194E-22</v>
+        <v>1.7094579241014257E-22</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="13">
         <f>PI()^2*B84*B81^2*((B80^2+(0.4*B79^2))/(B85^2*B82*B83*B80))</f>
         <v>6.0581109702225041E-11</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="13">
+        <f>B87*SQRT((C84^2/B84^2)+(C85^2*(2/B85)^2)+(C83^2*(1/B83)^2))</f>
+        <v>2.8128600253405244E-12</v>
+      </c>
+      <c r="D87" s="12">
         <f>SQRT(G86)</f>
-        <v>1.3988429954300517E-11</v>
+        <v>1.3074623987332965E-11</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="8">
         <v>6.67E-11</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <f>ABS(B87-B88)/AVERAGE(B87:B88)</f>
         <v>9.6147657921747232E-2</v>
       </c>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E90" s="9"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="7">
         <f>B81^3/((B81^2+4*B80^2)^(3/2))</f>
         <v>5.8772337831158858E-2</v>
       </c>
+      <c r="C94" s="7">
+        <f>B94*SQRT((D94+E94))</f>
+        <v>4.6408764425113248E-3</v>
+      </c>
+      <c r="D94" s="2">
+        <f>$C$81^2*((12*$B$80^2)/($B$81*($B$81^2+4*$B$80^2)))^2</f>
+        <v>3.6413723661443088E-3</v>
+      </c>
+      <c r="E94" s="2">
+        <f>$C$81^2*((12*$B$80)/(($B$81^2+4*$B$80^2)))^2</f>
+        <v>2.5938806258097719E-3</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="13">
         <f>B87/(1-B94)</f>
         <v>6.4363928236692398E-11</v>
       </c>
+      <c r="C95" s="13">
+        <f>B95*SQRT((C87^2*(1/B87)^2)+C94^2*(1/(1-B94))^2)</f>
+        <v>3.0053044707532611E-12</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="8">
         <v>6.67E-11</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <f>ABS(B95-B96)/AVERAGE(B95:B96)</f>
         <v>3.5647821559091644E-2</v>
       </c>

--- a/CavendishExperiment.xlsx
+++ b/CavendishExperiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARAINES\Documents\Daniel Litt\CavendishExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EAF195-48EF-4EE3-B2C8-F6291C48061C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9C15F-A66E-440F-88E7-4468A41C1D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Measurements of S</t>
   </si>
@@ -262,7 +262,7 @@
     <numFmt numFmtId="169" formatCode="0.0000E+00"/>
     <numFmt numFmtId="171" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +303,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +359,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +401,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2113,10 +2124,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,12 +2357,12 @@
         <v>7.8999999999999986</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2364,8 +2375,20 @@
       <c r="G19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -2384,8 +2407,20 @@
       <c r="G20" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M20" s="2">
+        <v>10</v>
+      </c>
+      <c r="N20" s="15">
+        <v>53.4</v>
+      </c>
+      <c r="O20" s="2">
+        <v>280</v>
+      </c>
+      <c r="P20" s="2">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2404,8 +2439,20 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M21" s="2">
+        <v>20</v>
+      </c>
+      <c r="N21" s="2">
+        <v>52.1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>290</v>
+      </c>
+      <c r="P21" s="2">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>30</v>
       </c>
@@ -2426,8 +2473,20 @@
         <f>G20+G21</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M22" s="2">
+        <v>30</v>
+      </c>
+      <c r="N22" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="O22" s="2">
+        <v>300</v>
+      </c>
+      <c r="P22" s="2">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>40</v>
       </c>
@@ -2437,8 +2496,20 @@
       <c r="C23" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M23" s="2">
+        <v>40</v>
+      </c>
+      <c r="N23" s="2">
+        <v>49.7</v>
+      </c>
+      <c r="O23" s="2">
+        <v>310</v>
+      </c>
+      <c r="P23" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>50</v>
       </c>
@@ -2448,8 +2519,20 @@
       <c r="C24" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M24" s="2">
+        <v>50</v>
+      </c>
+      <c r="N24" s="2">
+        <v>48.6</v>
+      </c>
+      <c r="O24" s="2">
+        <v>320</v>
+      </c>
+      <c r="P24" s="2">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>60</v>
       </c>
@@ -2462,8 +2545,20 @@
       <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M25" s="2">
+        <v>60</v>
+      </c>
+      <c r="N25" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="O25" s="2">
+        <v>330</v>
+      </c>
+      <c r="P25" s="2">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>70</v>
       </c>
@@ -2482,8 +2577,20 @@
       <c r="G26" s="2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M26" s="2">
+        <v>70</v>
+      </c>
+      <c r="N26" s="2">
+        <v>46.9</v>
+      </c>
+      <c r="O26" s="2">
+        <v>340</v>
+      </c>
+      <c r="P26" s="2">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>80</v>
       </c>
@@ -2493,8 +2600,20 @@
       <c r="C27" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M27" s="2">
+        <v>80</v>
+      </c>
+      <c r="N27" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="O27" s="2">
+        <v>350</v>
+      </c>
+      <c r="P27" s="2">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>90</v>
       </c>
@@ -2504,8 +2623,20 @@
       <c r="C28" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M28" s="2">
+        <v>90</v>
+      </c>
+      <c r="N28" s="2">
+        <v>45.6</v>
+      </c>
+      <c r="O28" s="2">
+        <v>360</v>
+      </c>
+      <c r="P28" s="2">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>100</v>
       </c>
@@ -2515,8 +2646,20 @@
       <c r="C29" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M29" s="2">
+        <v>100</v>
+      </c>
+      <c r="N29" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="O29" s="2">
+        <v>370</v>
+      </c>
+      <c r="P29" s="2">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>110</v>
       </c>
@@ -2526,8 +2669,20 @@
       <c r="C30" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M30" s="2">
+        <v>110</v>
+      </c>
+      <c r="N30" s="2">
+        <v>45.1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>380</v>
+      </c>
+      <c r="P30" s="2">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>120</v>
       </c>
@@ -2537,8 +2692,20 @@
       <c r="C31" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M31" s="2">
+        <v>120</v>
+      </c>
+      <c r="N31" s="2">
+        <v>45.3</v>
+      </c>
+      <c r="O31" s="2">
+        <v>390</v>
+      </c>
+      <c r="P31" s="2">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>130</v>
       </c>
@@ -2548,8 +2715,20 @@
       <c r="C32" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M32" s="2">
+        <v>130</v>
+      </c>
+      <c r="N32" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="O32" s="2">
+        <v>400</v>
+      </c>
+      <c r="P32" s="2">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>140</v>
       </c>
@@ -2559,8 +2738,20 @@
       <c r="C33" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M33" s="2">
+        <v>140</v>
+      </c>
+      <c r="N33" s="2">
+        <v>45.6</v>
+      </c>
+      <c r="O33" s="2">
+        <v>410</v>
+      </c>
+      <c r="P33" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>150</v>
       </c>
@@ -2570,8 +2761,20 @@
       <c r="C34" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M34" s="2">
+        <v>150</v>
+      </c>
+      <c r="N34" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>420</v>
+      </c>
+      <c r="P34" s="2">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>160</v>
       </c>
@@ -2581,8 +2784,20 @@
       <c r="C35" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M35" s="2">
+        <v>160</v>
+      </c>
+      <c r="N35" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="O35" s="2">
+        <v>430</v>
+      </c>
+      <c r="P35" s="2">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>170</v>
       </c>
@@ -2592,8 +2807,20 @@
       <c r="C36" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M36" s="2">
+        <v>170</v>
+      </c>
+      <c r="N36" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="O36" s="2">
+        <v>440</v>
+      </c>
+      <c r="P36" s="2">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>180</v>
       </c>
@@ -2603,8 +2830,20 @@
       <c r="C37" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M37" s="2">
+        <v>180</v>
+      </c>
+      <c r="N37" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="O37" s="2">
+        <v>450</v>
+      </c>
+      <c r="P37" s="2">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>190</v>
       </c>
@@ -2614,8 +2853,20 @@
       <c r="C38" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M38" s="2">
+        <v>190</v>
+      </c>
+      <c r="N38" s="2">
+        <v>49.3</v>
+      </c>
+      <c r="O38" s="2">
+        <v>460</v>
+      </c>
+      <c r="P38" s="2">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>200</v>
       </c>
@@ -2625,8 +2876,20 @@
       <c r="C39" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M39" s="2">
+        <v>200</v>
+      </c>
+      <c r="N39" s="2">
+        <v>50.3</v>
+      </c>
+      <c r="O39" s="2">
+        <v>470</v>
+      </c>
+      <c r="P39" s="2">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>210</v>
       </c>
@@ -2636,8 +2899,20 @@
       <c r="C40" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M40" s="2">
+        <v>210</v>
+      </c>
+      <c r="N40" s="2">
+        <v>51.4</v>
+      </c>
+      <c r="O40" s="2">
+        <v>480</v>
+      </c>
+      <c r="P40" s="2">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>220</v>
       </c>
@@ -2647,8 +2922,20 @@
       <c r="C41" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M41" s="2">
+        <v>220</v>
+      </c>
+      <c r="N41" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="O41" s="2">
+        <v>490</v>
+      </c>
+      <c r="P41" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>230</v>
       </c>
@@ -2658,8 +2945,20 @@
       <c r="C42" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M42" s="2">
+        <v>230</v>
+      </c>
+      <c r="N42" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="O42" s="2">
+        <v>500</v>
+      </c>
+      <c r="P42" s="2">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>240</v>
       </c>
@@ -2669,8 +2968,20 @@
       <c r="C43" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M43" s="2">
+        <v>240</v>
+      </c>
+      <c r="N43" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="O43" s="2">
+        <v>510</v>
+      </c>
+      <c r="P43" s="15">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>250</v>
       </c>
@@ -2680,8 +2991,20 @@
       <c r="C44" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M44" s="2">
+        <v>250</v>
+      </c>
+      <c r="N44" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="O44" s="2">
+        <v>520</v>
+      </c>
+      <c r="P44" s="2">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>260</v>
       </c>
@@ -2691,8 +3014,20 @@
       <c r="C45" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M45" s="2">
+        <v>260</v>
+      </c>
+      <c r="N45" s="2">
+        <v>57.7</v>
+      </c>
+      <c r="O45" s="2">
+        <v>530</v>
+      </c>
+      <c r="P45" s="2">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>270</v>
       </c>
@@ -2702,8 +3037,20 @@
       <c r="C46" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M46" s="2">
+        <v>270</v>
+      </c>
+      <c r="N46" s="2">
+        <v>58.9</v>
+      </c>
+      <c r="O46" s="2">
+        <v>540</v>
+      </c>
+      <c r="P46" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>280</v>
       </c>
@@ -2714,7 +3061,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>290</v>
       </c>

--- a/CavendishExperiment.xlsx
+++ b/CavendishExperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARAINES\Documents\Daniel Litt\CavendishExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9C15F-A66E-440F-88E7-4468A41C1D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF6C580-79D9-4FF1-95EA-E63E32910911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1D886BEF-429E-4660-9EA4-F3E5EA03BF59}"/>
   </bookViews>
@@ -2126,8 +2126,8 @@
   </sheetPr>
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20:P46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2407,7 +2407,7 @@
       <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="15">
         <v>10</v>
       </c>
       <c r="N20" s="15">
@@ -2974,7 +2974,7 @@
       <c r="N43" s="2">
         <v>55.2</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="15">
         <v>510</v>
       </c>
       <c r="P43" s="15">
@@ -3404,16 +3404,16 @@
       <c r="A80" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="7">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
       <c r="C80" s="2">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" ref="D80:D85" si="1">C80^2</f>
-        <v>1E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E80" s="2">
         <f>(PI()^2*$B$81^2*$B$84*(5*$B$80^2-2*$B$79^2))/(5*$B$80^2*$B$83*$B$85^2*$B$82)</f>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" ref="G80:G85" si="3">D80*F80</f>
-        <v>1.3847872148736004E-22</v>
+        <v>1.3847872148736002E-24</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>31</v>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="G86" s="2">
         <f>SUM(G79:G85)</f>
-        <v>1.7094579241014257E-22</v>
+        <v>3.3851858137656148E-23</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="D87" s="12">
         <f>SQRT(G86)</f>
-        <v>1.3074623987332965E-11</v>
+        <v>5.8182349675529733E-12</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
